--- a/medicine/Premiers secours et secourisme/Classe_Salvamar/Classe_Salvamar.xlsx
+++ b/medicine/Premiers secours et secourisme/Classe_Salvamar/Classe_Salvamar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,46 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Classe Salvamar est une classe de navire de sauvetage de la marine espagnole, mais civile. À ce titre, elle est mise en œuvre par la Sociedad de Salvamento y Seguridad Marítima dépendant du ministère de l'Équipement.
 Les bateaux de la classe Salvamar, longs de 15 mètres, sont des bateaux de recherche et de sauvetage d'intervention rapide, conçus par la société norvégienne Maritime Partners AS, qui les appelle commercialement Alusafe 1500. Leur coque est en aluminium, ils sont auto-redressables et insubmersibles. Six unités de l'Alusafe 1500 ont été construites en Norvège. En 1992, Maritime Partners AS a conclu un accord avec la société Auxiliar Naval del Principado pour fabriquer les modèles en Espagne. Ceux-ci ont été construits avec une puissance différente de celle du norvégien Alusafe 1500.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Classe_Salvamar</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_Salvamar</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Dotation</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Zone atlantique
-Zone des Canaries
-Zone du détroit de Gibraltar
-Zone de la Méditerranée
-Embarcations de couverture</t>
         </is>
       </c>
     </row>
